--- a/data/Sub_littoral_coarse.xlsx
+++ b/data/Sub_littoral_coarse.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\Development\R\meso-tool\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F33E3-DCB5-4E72-A9ED-89899297A3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="14355" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenario" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Map_P_BA" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Map_BA_OP" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Map_OP_ES" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Legend" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Map_P_BA" sheetId="2" r:id="rId2"/>
+    <sheet name="Map_BA_OP" sheetId="3" r:id="rId3"/>
+    <sheet name="Map_OP_ES" sheetId="4" r:id="rId4"/>
+    <sheet name="Legend" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,329 +31,326 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="105">
   <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment To Mud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Or Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penetrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wave exp change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SusSed change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contamination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species Removal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silt Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silt Heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidance Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colonial hydroids and bryozoans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actiniaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encrusting or tube building epifauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decapods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bivalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echiniods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophiurids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solitary tube building fauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregarious tube building fauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predatory infauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrow dwelling fauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrowing bivalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other burrowing fauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interstitial fauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inNodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid using hyphens or special characters wherever possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insensitive =  -0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High resistance =  -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium resistance = -0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low resistance =  -0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No resistance =  -0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitive  I = -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairly sensitive II = -0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not so much really III = -0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couldn't care less IV = -0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all internal nodes in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal nodes shall also appear in the column headings as well.  Important to keep the same name (i.e. use copy and paste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO NOT enter output parameters under column heading, they will be ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all link nodes in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No input paras need to be entered for link nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are input nodes which will also appear as an output, without additional processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioturbation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodeposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitat provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all inputs in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All input names should be the same as output names from the previous sheet (i.e. column names)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid using hyphens or special characters wherever possible.  R will replace them with full stops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"the more the merrier"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 = full noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 = don't bother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale of 0 - 1 contnuously</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient cycling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Flows atten (CICES 5.2.1.1/2.2.1.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Baseline Flows (CICES 2.2.1.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediation of Wastes (CICES 2.2.1.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursery pop habitat (CICES 2.2.2.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild animals (CICES 1.1.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon sequestrn (CICES 2.2.6.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=-0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube Builders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epifauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sedentary tube building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem services</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Sediment To Mud</t>
+  </si>
+  <si>
+    <t>Artificial Or Hard</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Abrade</t>
+  </si>
+  <si>
+    <t>Penetrate</t>
+  </si>
+  <si>
+    <t>Wave exp change</t>
+  </si>
+  <si>
+    <t>SusSed change</t>
+  </si>
+  <si>
+    <t>Contamination</t>
+  </si>
+  <si>
+    <t>Species Removal</t>
+  </si>
+  <si>
+    <t>Silt Light</t>
+  </si>
+  <si>
+    <t>Silt Heavy</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=1</t>
+  </si>
+  <si>
+    <t>Guidance Notes</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>Colonial hydroids and bryozoans</t>
+  </si>
+  <si>
+    <t>Actiniaria</t>
+  </si>
+  <si>
+    <t>Encrusting or tube building epifauna</t>
+  </si>
+  <si>
+    <t>Decapods</t>
+  </si>
+  <si>
+    <t>Bivalves</t>
+  </si>
+  <si>
+    <t>Solitary tube building fauna</t>
+  </si>
+  <si>
+    <t>Gregarious tube building fauna</t>
+  </si>
+  <si>
+    <t>Predatory infauna</t>
+  </si>
+  <si>
+    <t>Burrow dwelling fauna</t>
+  </si>
+  <si>
+    <t>Burrowing bivalves</t>
+  </si>
+  <si>
+    <t>Other burrowing fauna</t>
+  </si>
+  <si>
+    <t>Interstitial fauna</t>
+  </si>
+  <si>
+    <t>inNodes</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=2</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=3</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=4</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=5</t>
+  </si>
+  <si>
+    <t>Avoid using hyphens or special characters wherever possible.</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>imp=HR</t>
+  </si>
+  <si>
+    <t>imp=LR</t>
+  </si>
+  <si>
+    <t>imp=MR</t>
+  </si>
+  <si>
+    <t>imp=NR</t>
+  </si>
+  <si>
+    <t>Resistance weights</t>
+  </si>
+  <si>
+    <t>Insensitive =  -0.01</t>
+  </si>
+  <si>
+    <t>High resistance =  -0.2</t>
+  </si>
+  <si>
+    <t>Medium resistance = -0.75</t>
+  </si>
+  <si>
+    <t>Low resistance =  -0.95</t>
+  </si>
+  <si>
+    <t>No resistance =  -0.999</t>
+  </si>
+  <si>
+    <t>AMBI scores</t>
+  </si>
+  <si>
+    <t>imp=II</t>
+  </si>
+  <si>
+    <t>imp=IV</t>
+  </si>
+  <si>
+    <t>imp=III</t>
+  </si>
+  <si>
+    <t>imp=I</t>
+  </si>
+  <si>
+    <t>Sensitive  I = -0.2</t>
+  </si>
+  <si>
+    <t>Fairly sensitive II = -0.5</t>
+  </si>
+  <si>
+    <t>Not so much really III = -0.75</t>
+  </si>
+  <si>
+    <t>Couldn't care less IV = -0.95</t>
+  </si>
+  <si>
+    <t>Internal Nodes</t>
+  </si>
+  <si>
+    <t>Enter all internal nodes in this section</t>
+  </si>
+  <si>
+    <t>Internal nodes shall also appear in the column headings as well.  Important to keep the same name (i.e. use copy and paste)</t>
+  </si>
+  <si>
+    <t>DO NOT enter output parameters under column heading, they will be ignored</t>
+  </si>
+  <si>
+    <t>Link nodes</t>
+  </si>
+  <si>
+    <t>Enter all link nodes in this section</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>No input paras need to be entered for link nodes</t>
+  </si>
+  <si>
+    <t>Are input nodes which will also appear as an output, without additional processing</t>
+  </si>
+  <si>
+    <t>Bioturbation</t>
+  </si>
+  <si>
+    <t>Biodeposition</t>
+  </si>
+  <si>
+    <t>Secondary production</t>
+  </si>
+  <si>
+    <t>Habitat provision</t>
+  </si>
+  <si>
+    <t>Input Nodes</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=6</t>
+  </si>
+  <si>
+    <t>Enter all inputs in this section</t>
+  </si>
+  <si>
+    <t>imp=0.75</t>
+  </si>
+  <si>
+    <t>imp=1</t>
+  </si>
+  <si>
+    <t>All input names should be the same as output names from the previous sheet (i.e. column names)</t>
+  </si>
+  <si>
+    <t>imp=0.25</t>
+  </si>
+  <si>
+    <t>Avoid using hyphens or special characters wherever possible.  R will replace them with full stops.</t>
+  </si>
+  <si>
+    <t>imp=0.5</t>
+  </si>
+  <si>
+    <t>"the more the merrier"</t>
+  </si>
+  <si>
+    <t>1 = full noise</t>
+  </si>
+  <si>
+    <t>0 = don't bother</t>
+  </si>
+  <si>
+    <t>scale of 0 - 1 contnuously</t>
+  </si>
+  <si>
+    <t>Sediment stability</t>
+  </si>
+  <si>
+    <t>Nutrient cycling</t>
+  </si>
+  <si>
+    <t>Food resources</t>
+  </si>
+  <si>
+    <t>Mass Flows atten (CICES 5.2.1.1/2.2.1.2)</t>
+  </si>
+  <si>
+    <t>Regulation of Baseline Flows (CICES 2.2.1.1)</t>
+  </si>
+  <si>
+    <t>Mediation of Wastes (CICES 2.2.1.2)</t>
+  </si>
+  <si>
+    <t>Nursery pop habitat (CICES 2.2.2.3)</t>
+  </si>
+  <si>
+    <t>Wild animals (CICES 1.1.6)</t>
+  </si>
+  <si>
+    <t>Carbon sequestrn (CICES 2.2.6.1)</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=7</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=8</t>
+  </si>
+  <si>
+    <t>imp=0.95</t>
+  </si>
+  <si>
+    <t>imp=-0.95</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Pressures</t>
+  </si>
+  <si>
+    <t>Tube Builders</t>
+  </si>
+  <si>
+    <t>Epifauna</t>
+  </si>
+  <si>
+    <t>Sedentary tube building</t>
+  </si>
+  <si>
+    <t>Infauna</t>
+  </si>
+  <si>
+    <t>Functional Groups</t>
+  </si>
+  <si>
+    <t>Output processes</t>
+  </si>
+  <si>
+    <t>Ecosystem services</t>
+  </si>
+  <si>
+    <t>Echinoids</t>
+  </si>
+  <si>
+    <t>Ophiuroids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -356,22 +358,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -489,259 +476,186 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -800,39 +714,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.83"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="1022" width="8.7109375" customWidth="1"/>
+    <col min="1023" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,7 +1092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -906,57 +1128,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -964,42 +1139,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="36.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.67"/>
+    <col min="1" max="1" width="36.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
+    <col min="12" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="24" width="16.42578125" customWidth="1"/>
+    <col min="25" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1025,31 +1196,31 @@
         <v>20</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -1059,53 +1230,53 @@
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
@@ -1115,57 +1286,57 @@
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="I3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="L3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="N3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="Q3" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
@@ -1175,57 +1346,57 @@
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -1235,57 +1406,57 @@
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
@@ -1295,57 +1466,57 @@
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="P6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="Q6" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
@@ -1355,57 +1526,57 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -1415,57 +1586,57 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="H8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -1475,57 +1646,57 @@
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="I9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="P9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
@@ -1535,57 +1706,57 @@
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="L10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -1595,110 +1766,110 @@
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="I11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="K11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="M11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="P11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="K12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="M12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -1709,9 +1880,9 @@
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -1722,9 +1893,9 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -1741,7 +1912,7 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1762,9 +1933,9 @@
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1779,9 +1950,9 @@
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1796,9 +1967,9 @@
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1813,9 +1984,9 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1830,7 +2001,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1845,7 +2016,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1860,7 +2031,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1875,9 +2046,9 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -1893,15 +2064,15 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1915,15 +2086,15 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -1937,9 +2108,9 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1955,7 +2126,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1971,7 +2142,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1986,7 +2157,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -2001,7 +2172,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -2016,7 +2187,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -2031,7 +2202,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -2046,7 +2217,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -2061,7 +2232,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -2076,7 +2247,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -2091,7 +2262,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -2106,7 +2277,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -2121,7 +2292,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -2136,7 +2307,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -2151,7 +2322,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -2166,7 +2337,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -2182,7 +2353,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -2198,16 +2369,15 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2215,29 +2385,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.83"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="1019" width="8.7109375" customWidth="1"/>
+    <col min="1020" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -2247,304 +2414,304 @@
         <v>15</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="F14" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="F15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="28"/>
       <c r="C17" s="16"/>
@@ -2553,9 +2720,9 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2564,7 +2731,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2573,7 +2740,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2581,9 +2748,9 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -2591,63 +2758,63 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2655,9 +2822,9 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2665,9 +2832,9 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -2675,9 +2842,9 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2686,7 +2853,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -2695,7 +2862,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2704,7 +2871,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2713,7 +2880,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2722,7 +2889,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -2731,7 +2898,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -2740,7 +2907,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -2749,7 +2916,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2758,7 +2925,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2768,10 +2935,9 @@
       <c r="G38" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2779,32 +2945,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4401" ySplit="0" topLeftCell="A1" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4395" activePane="topRight"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="12" width="22" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -2815,106 +2977,106 @@
         <v>15</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2922,65 +3084,65 @@
       <c r="K4" s="16"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2988,16 +3150,16 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -3005,17 +3167,17 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -3025,16 +3187,16 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -3044,10 +3206,10 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -3060,9 +3222,9 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -3074,38 +3236,38 @@
       <c r="K12" s="16"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="H13" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -3113,20 +3275,20 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -3137,7 +3299,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -3149,9 +3311,9 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -3163,9 +3325,9 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -3177,9 +3339,9 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -3192,7 +3354,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -3205,7 +3367,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -3218,7 +3380,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3231,7 +3393,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -3244,7 +3406,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -3257,7 +3419,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -3270,7 +3432,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -3279,10 +3441,9 @@
       <c r="F27" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3290,72 +3451,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
